--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H2">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>4220.307325732101</v>
+        <v>84219.43979510624</v>
       </c>
       <c r="R2">
-        <v>4220.307325732101</v>
+        <v>757974.9581559561</v>
       </c>
       <c r="S2">
-        <v>0.5956955143496132</v>
+        <v>0.8564037967674971</v>
       </c>
       <c r="T2">
-        <v>0.5956955143496132</v>
+        <v>0.8564037967674971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H3">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>1212.785090676387</v>
+        <v>6883.156798414332</v>
       </c>
       <c r="R3">
-        <v>1212.785090676387</v>
+        <v>61948.41118572899</v>
       </c>
       <c r="S3">
-        <v>0.1711843670675544</v>
+        <v>0.06999288561226659</v>
       </c>
       <c r="T3">
-        <v>0.1711843670675544</v>
+        <v>0.06999288561226659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H4">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>703.5114681163668</v>
+        <v>4037.430158088242</v>
       </c>
       <c r="R4">
-        <v>703.5114681163668</v>
+        <v>36336.87142279417</v>
       </c>
       <c r="S4">
-        <v>0.09930049958571029</v>
+        <v>0.04105549176036294</v>
       </c>
       <c r="T4">
-        <v>0.09930049958571029</v>
+        <v>0.04105549176036294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H5">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>504.8760096079788</v>
+        <v>2297.577967145914</v>
       </c>
       <c r="R5">
-        <v>504.8760096079788</v>
+        <v>20678.20170431323</v>
       </c>
       <c r="S5">
-        <v>0.07126314531466812</v>
+        <v>0.02336342415979172</v>
       </c>
       <c r="T5">
-        <v>0.07126314531466812</v>
+        <v>0.02336342415979172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H6">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>145.0856655294713</v>
+        <v>187.7783732938856</v>
       </c>
       <c r="R6">
-        <v>145.0856655294713</v>
+        <v>1690.00535964497</v>
       </c>
       <c r="S6">
-        <v>0.02047881196361494</v>
+        <v>0.001909465465822921</v>
       </c>
       <c r="T6">
-        <v>0.02047881196361494</v>
+        <v>0.001909465465822921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H7">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>84.16118432190898</v>
+        <v>110.14452954902</v>
       </c>
       <c r="R7">
-        <v>84.16118432190898</v>
+        <v>991.3007659411801</v>
       </c>
       <c r="S7">
-        <v>0.01187933392367706</v>
+        <v>0.001120028743107736</v>
       </c>
       <c r="T7">
-        <v>0.01187933392367706</v>
+        <v>0.001120028743107736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H8">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>147.1358931856921</v>
+        <v>535.8020528055151</v>
       </c>
       <c r="R8">
-        <v>147.1358931856921</v>
+        <v>4822.218475249637</v>
       </c>
       <c r="S8">
-        <v>0.02076820117722972</v>
+        <v>0.00544842038197843</v>
       </c>
       <c r="T8">
-        <v>0.02076820117722972</v>
+        <v>0.005448420381978431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H9">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>42.28228036165731</v>
+        <v>43.79047820010478</v>
       </c>
       <c r="R9">
-        <v>42.28228036165731</v>
+        <v>394.114303800943</v>
       </c>
       <c r="S9">
-        <v>0.005968135210044855</v>
+        <v>0.0004452930568532848</v>
       </c>
       <c r="T9">
-        <v>0.005968135210044855</v>
+        <v>0.0004452930568532849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H10">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>24.52707356086276</v>
+        <v>25.686033676138</v>
       </c>
       <c r="R10">
-        <v>24.52707356086276</v>
+        <v>231.174303085242</v>
       </c>
       <c r="S10">
-        <v>0.003461991407887436</v>
+        <v>0.0002611940523192674</v>
       </c>
       <c r="T10">
-        <v>0.003461991407887436</v>
+        <v>0.0002611940523192675</v>
       </c>
     </row>
   </sheetData>
